--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="H2">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="I2">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="J2">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N2">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O2">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P2">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q2">
-        <v>16.93803217234844</v>
+        <v>48.76379138309532</v>
       </c>
       <c r="R2">
-        <v>152.442289551136</v>
+        <v>438.8741224478579</v>
       </c>
       <c r="S2">
-        <v>0.008240221895773846</v>
+        <v>0.04191304330546684</v>
       </c>
       <c r="T2">
-        <v>0.008240221895773846</v>
+        <v>0.04191304330546685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="H3">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="I3">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="J3">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>80.554554</v>
       </c>
       <c r="O3">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P3">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q3">
-        <v>232.167855372456</v>
+        <v>270.007292003742</v>
       </c>
       <c r="R3">
-        <v>2089.510698352104</v>
+        <v>2430.065628033678</v>
       </c>
       <c r="S3">
-        <v>0.1129478693787199</v>
+        <v>0.2320743937574101</v>
       </c>
       <c r="T3">
-        <v>0.1129478693787199</v>
+        <v>0.2320743937574102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="H4">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="I4">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="J4">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N4">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O4">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P4">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q4">
-        <v>1.114452225503111</v>
+        <v>0.2948862646376667</v>
       </c>
       <c r="R4">
-        <v>10.030070029528</v>
+        <v>2.653976381739</v>
       </c>
       <c r="S4">
-        <v>0.000542172404500243</v>
+        <v>0.0002534581587975234</v>
       </c>
       <c r="T4">
-        <v>0.0005421724045002429</v>
+        <v>0.0002534581587975234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="H5">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="I5">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="J5">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N5">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O5">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P5">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q5">
-        <v>135.2634562899209</v>
+        <v>79.431574090078</v>
       </c>
       <c r="R5">
-        <v>1217.371106609288</v>
+        <v>714.884166810702</v>
       </c>
       <c r="S5">
-        <v>0.06580462729536288</v>
+        <v>0.06827235762912723</v>
       </c>
       <c r="T5">
-        <v>0.06580462729536288</v>
+        <v>0.06827235762912724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="H6">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="I6">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="J6">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N6">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O6">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P6">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q6">
-        <v>5.335621819287111</v>
+        <v>4.006051541335334</v>
       </c>
       <c r="R6">
-        <v>48.02059637358401</v>
+        <v>36.054463872018</v>
       </c>
       <c r="S6">
-        <v>0.002595738825826212</v>
+        <v>0.003443247683856817</v>
       </c>
       <c r="T6">
-        <v>0.002595738825826212</v>
+        <v>0.003443247683856818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="H7">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="I7">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="J7">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N7">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O7">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P7">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q7">
-        <v>3.867761211762221</v>
+        <v>4.055521588959</v>
       </c>
       <c r="R7">
-        <v>34.80985090586</v>
+        <v>36.499694300631</v>
       </c>
       <c r="S7">
-        <v>0.001881635971669602</v>
+        <v>0.003485767762578445</v>
       </c>
       <c r="T7">
-        <v>0.001881635971669602</v>
+        <v>0.003485767762578446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>21.393154</v>
       </c>
       <c r="I8">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="J8">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N8">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O8">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P8">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q8">
-        <v>13.96957743290488</v>
+        <v>34.5815437754751</v>
       </c>
       <c r="R8">
-        <v>125.726196896144</v>
+        <v>311.2338939792759</v>
       </c>
       <c r="S8">
-        <v>0.006796091580535167</v>
+        <v>0.02972323727752323</v>
       </c>
       <c r="T8">
-        <v>0.006796091580535167</v>
+        <v>0.02972323727752324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>21.393154</v>
       </c>
       <c r="I9">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="J9">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>80.554554</v>
       </c>
       <c r="O9">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P9">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q9">
         <v>191.479553235924</v>
@@ -1013,10 +1013,10 @@
         <v>1723.315979123316</v>
       </c>
       <c r="S9">
-        <v>0.09315332448969423</v>
+        <v>0.1645788930528252</v>
       </c>
       <c r="T9">
-        <v>0.09315332448969423</v>
+        <v>0.1645788930528252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>21.393154</v>
       </c>
       <c r="I10">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="J10">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N10">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O10">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P10">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q10">
-        <v>0.9191402224902223</v>
+        <v>0.2091228343842222</v>
       </c>
       <c r="R10">
-        <v>8.272262002412001</v>
+        <v>1.882105509458</v>
       </c>
       <c r="S10">
-        <v>0.0004471546227793154</v>
+        <v>0.0001797434974825682</v>
       </c>
       <c r="T10">
-        <v>0.0004471546227793153</v>
+        <v>0.0001797434974825682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>21.393154</v>
       </c>
       <c r="I11">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="J11">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N11">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O11">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P11">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q11">
-        <v>111.5580196836058</v>
+        <v>56.33004281744933</v>
       </c>
       <c r="R11">
-        <v>1004.022177152452</v>
+        <v>506.970385357044</v>
       </c>
       <c r="S11">
-        <v>0.05427211538461514</v>
+        <v>0.04841632401915773</v>
       </c>
       <c r="T11">
-        <v>0.05427211538461514</v>
+        <v>0.04841632401915774</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>21.393154</v>
       </c>
       <c r="I12">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="J12">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N12">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O12">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P12">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q12">
-        <v>4.400533745526222</v>
+        <v>2.840949048755111</v>
       </c>
       <c r="R12">
-        <v>39.604803709736</v>
+        <v>25.568541438796</v>
       </c>
       <c r="S12">
-        <v>0.002140825696515918</v>
+        <v>0.002441828601341612</v>
       </c>
       <c r="T12">
-        <v>0.002140825696515918</v>
+        <v>0.002441828601341612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>21.393154</v>
       </c>
       <c r="I13">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="J13">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N13">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O13">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P13">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q13">
-        <v>3.189921307854444</v>
+        <v>2.876031444298</v>
       </c>
       <c r="R13">
-        <v>28.70929177068999</v>
+        <v>25.884282998682</v>
       </c>
       <c r="S13">
-        <v>0.001551872091121035</v>
+        <v>0.00247198232651234</v>
       </c>
       <c r="T13">
-        <v>0.001551872091121034</v>
+        <v>0.002471982326512341</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="H14">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="I14">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="J14">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N14">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O14">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P14">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q14">
-        <v>3.000156891206222</v>
+        <v>12.72091350372511</v>
       </c>
       <c r="R14">
-        <v>27.001412020856</v>
+        <v>114.488221533526</v>
       </c>
       <c r="S14">
-        <v>0.001459553167340963</v>
+        <v>0.0109337724455847</v>
       </c>
       <c r="T14">
-        <v>0.001459553167340963</v>
+        <v>0.01093377244558471</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="H15">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="I15">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="J15">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>80.554554</v>
       </c>
       <c r="O15">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P15">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q15">
-        <v>41.122840252326</v>
+        <v>70.43626653167399</v>
       </c>
       <c r="R15">
-        <v>370.105562270934</v>
+        <v>633.926398785066</v>
       </c>
       <c r="S15">
-        <v>0.02000594432786722</v>
+        <v>0.06054078663048499</v>
       </c>
       <c r="T15">
-        <v>0.02000594432786722</v>
+        <v>0.060540786630485</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="H16">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="I16">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="J16">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N16">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O16">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P16">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q16">
-        <v>0.1973978730375556</v>
+        <v>0.07692639475922222</v>
       </c>
       <c r="R16">
-        <v>1.776580857338</v>
+        <v>0.692337552833</v>
       </c>
       <c r="S16">
-        <v>9.603254138569302E-05</v>
+        <v>6.611912698803072E-05</v>
       </c>
       <c r="T16">
-        <v>9.603254138569301E-05</v>
+        <v>6.611912698803074E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="H17">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="I17">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="J17">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N17">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O17">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P17">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q17">
-        <v>23.95860312386645</v>
+        <v>20.72115712919933</v>
       </c>
       <c r="R17">
-        <v>215.627428114798</v>
+        <v>186.490414162794</v>
       </c>
       <c r="S17">
-        <v>0.01165567546717367</v>
+        <v>0.01781007447252323</v>
       </c>
       <c r="T17">
-        <v>0.01165567546717367</v>
+        <v>0.01781007447252324</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="H18">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="I18">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="J18">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N18">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O18">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P18">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q18">
-        <v>0.9450745167515556</v>
+        <v>1.045050717005111</v>
       </c>
       <c r="R18">
-        <v>8.505670650764001</v>
+        <v>9.405456453046002</v>
       </c>
       <c r="S18">
-        <v>0.0004597714567331767</v>
+        <v>0.0008982331913885746</v>
       </c>
       <c r="T18">
-        <v>0.0004597714567331767</v>
+        <v>0.0008982331913885749</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="H19">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="I19">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="J19">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N19">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O19">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P19">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q19">
-        <v>0.6850790183261111</v>
+        <v>1.057955870173</v>
       </c>
       <c r="R19">
-        <v>6.165711164935</v>
+        <v>9.521602831556999</v>
       </c>
       <c r="S19">
-        <v>0.0003332856538294892</v>
+        <v>0.0009093253199587275</v>
       </c>
       <c r="T19">
-        <v>0.0003332856538294891</v>
+        <v>0.0009093253199587278</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="H20">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="I20">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="J20">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N20">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O20">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P20">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q20">
-        <v>44.04858020071021</v>
+        <v>29.40442343513155</v>
       </c>
       <c r="R20">
-        <v>396.4372218063919</v>
+        <v>264.6398109161839</v>
       </c>
       <c r="S20">
-        <v>0.02142929422699976</v>
+        <v>0.02527344240169545</v>
       </c>
       <c r="T20">
-        <v>0.02142929422699976</v>
+        <v>0.02527344240169545</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="H21">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="I21">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="J21">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>80.554554</v>
       </c>
       <c r="O21">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P21">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q21">
-        <v>603.769333612182</v>
+        <v>162.813606560616</v>
       </c>
       <c r="R21">
-        <v>5433.924002509638</v>
+        <v>1465.322459045544</v>
       </c>
       <c r="S21">
-        <v>0.2937291199003598</v>
+        <v>0.1399401799766533</v>
       </c>
       <c r="T21">
-        <v>0.2937291199003598</v>
+        <v>0.1399401799766534</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="H22">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="I22">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="J22">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N22">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O22">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P22">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q22">
-        <v>2.898213779229556</v>
+        <v>0.1778155542191111</v>
       </c>
       <c r="R22">
-        <v>26.083924013066</v>
+        <v>1.600339987972</v>
       </c>
       <c r="S22">
-        <v>0.001409958630331829</v>
+        <v>0.0001528345276892233</v>
       </c>
       <c r="T22">
-        <v>0.001409958630331828</v>
+        <v>0.0001528345276892233</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="H23">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="I23">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="J23">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N23">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O23">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P23">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q23">
-        <v>351.7624209226985</v>
+        <v>47.89700661941066</v>
       </c>
       <c r="R23">
-        <v>3165.861788304286</v>
+        <v>431.0730595746959</v>
       </c>
       <c r="S23">
-        <v>0.1711297022879458</v>
+        <v>0.04116803176501004</v>
       </c>
       <c r="T23">
-        <v>0.1711297022879458</v>
+        <v>0.04116803176501004</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="H24">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="I24">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="J24">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N24">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O24">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P24">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q24">
-        <v>13.87567122532756</v>
+        <v>2.415637350651556</v>
       </c>
       <c r="R24">
-        <v>124.881041027948</v>
+        <v>21.740736155864</v>
       </c>
       <c r="S24">
-        <v>0.006750406935474036</v>
+        <v>0.002076268272348906</v>
       </c>
       <c r="T24">
-        <v>0.006750406935474035</v>
+        <v>0.002076268272348907</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="H25">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="I25">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="J25">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N25">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O25">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P25">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q25">
-        <v>10.05839333636611</v>
+        <v>2.445467644532</v>
       </c>
       <c r="R25">
-        <v>90.52554002729498</v>
+        <v>22.009208800788</v>
       </c>
       <c r="S25">
-        <v>0.004893330710632254</v>
+        <v>0.00210190775532929</v>
       </c>
       <c r="T25">
-        <v>0.004893330710632253</v>
+        <v>0.002101907755329291</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="H26">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="I26">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="J26">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N26">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O26">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P26">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q26">
-        <v>1.203816551403555</v>
+        <v>2.569280447667555</v>
       </c>
       <c r="R26">
-        <v>10.834348962632</v>
+        <v>23.123524029008</v>
       </c>
       <c r="S26">
-        <v>0.0005856474591874139</v>
+        <v>0.002208326293191191</v>
       </c>
       <c r="T26">
-        <v>0.0005856474591874139</v>
+        <v>0.002208326293191192</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="H27">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="I27">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="J27">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>80.554554</v>
       </c>
       <c r="O27">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P27">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q27">
-        <v>16.500588979722</v>
+        <v>14.226220652592</v>
       </c>
       <c r="R27">
-        <v>148.505300817498</v>
+        <v>128.035985873328</v>
       </c>
       <c r="S27">
-        <v>0.00802740915947959</v>
+        <v>0.01222760136923887</v>
       </c>
       <c r="T27">
-        <v>0.00802740915947959</v>
+        <v>0.01222760136923887</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="H28">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="I28">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="J28">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N28">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O28">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P28">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q28">
-        <v>0.0792061333428889</v>
+        <v>0.01553705100711111</v>
       </c>
       <c r="R28">
-        <v>0.712855200086</v>
+        <v>0.139833459064</v>
       </c>
       <c r="S28">
-        <v>3.853317242584757E-05</v>
+        <v>1.335427523640102E-05</v>
       </c>
       <c r="T28">
-        <v>3.853317242584756E-05</v>
+        <v>1.335427523640102E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="H29">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="I29">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="J29">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N29">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O29">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P29">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q29">
-        <v>9.613418242745112</v>
+        <v>4.185113266394667</v>
       </c>
       <c r="R29">
-        <v>86.52076418470601</v>
+        <v>37.666019397552</v>
       </c>
       <c r="S29">
-        <v>0.004676853762647959</v>
+        <v>0.003597153309812004</v>
       </c>
       <c r="T29">
-        <v>0.004676853762647959</v>
+        <v>0.003597153309812005</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="H30">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="I30">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="J30">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N30">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O30">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P30">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q30">
-        <v>0.3792122835008889</v>
+        <v>0.2110719779075556</v>
       </c>
       <c r="R30">
-        <v>3.412910551508</v>
+        <v>1.899647801168</v>
       </c>
       <c r="S30">
-        <v>0.0001844838485282659</v>
+        <v>0.000181418808909037</v>
       </c>
       <c r="T30">
-        <v>0.0001844838485282659</v>
+        <v>0.0001814188089090371</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="H31">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="I31">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="J31">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N31">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O31">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P31">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q31">
-        <v>0.2748887778827777</v>
+        <v>0.213678469784</v>
       </c>
       <c r="R31">
-        <v>2.473999000945</v>
+        <v>1.923106228056</v>
       </c>
       <c r="S31">
-        <v>0.0001337312683884293</v>
+        <v>0.0001836591188561145</v>
       </c>
       <c r="T31">
-        <v>0.0001337312683884292</v>
+        <v>0.0001836591188561146</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="H32">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="I32">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="J32">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N32">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O32">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P32">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q32">
-        <v>9.053118878278219</v>
+        <v>11.50753728981177</v>
       </c>
       <c r="R32">
-        <v>81.47806990450398</v>
+        <v>103.567835608306</v>
       </c>
       <c r="S32">
-        <v>0.004404272447162827</v>
+        <v>0.009890861540646266</v>
       </c>
       <c r="T32">
-        <v>0.004404272447162827</v>
+        <v>0.00989086154064627</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="H33">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="I33">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="J33">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>80.554554</v>
       </c>
       <c r="O33">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P33">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q33">
-        <v>124.090164253734</v>
+        <v>63.71774821289399</v>
       </c>
       <c r="R33">
-        <v>1116.811478283606</v>
+        <v>573.4597339160459</v>
       </c>
       <c r="S33">
-        <v>0.06036890697392146</v>
+        <v>0.05476614234511022</v>
       </c>
       <c r="T33">
-        <v>0.06036890697392146</v>
+        <v>0.05476614234511023</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="H34">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="I34">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="J34">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N34">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O34">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P34">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q34">
-        <v>0.5956576524935556</v>
+        <v>0.06958881970255554</v>
       </c>
       <c r="R34">
-        <v>5.360918872442</v>
+        <v>0.6262993773229999</v>
       </c>
       <c r="S34">
-        <v>0.0002897828496556757</v>
+        <v>5.981239626869217E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002897828496556756</v>
+        <v>5.981239626869219E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="H35">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="I35">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="J35">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N35">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O35">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P35">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q35">
-        <v>72.29624653084245</v>
+        <v>18.74468278417933</v>
       </c>
       <c r="R35">
-        <v>650.666218777582</v>
+        <v>168.702145057614</v>
       </c>
       <c r="S35">
-        <v>0.03517156583385528</v>
+        <v>0.01611127188836475</v>
       </c>
       <c r="T35">
-        <v>0.03517156583385528</v>
+        <v>0.01611127188836475</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="H36">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="I36">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="J36">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N36">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O36">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P36">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q36">
-        <v>2.851808175119555</v>
+        <v>0.9453692214917777</v>
       </c>
       <c r="R36">
-        <v>25.666273576076</v>
+        <v>8.508322993426001</v>
       </c>
       <c r="S36">
-        <v>0.001387382662168414</v>
+        <v>0.0008125557918323868</v>
       </c>
       <c r="T36">
-        <v>0.001387382662168414</v>
+        <v>0.0008125557918323872</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="H37">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="I37">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="J37">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N37">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O37">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P37">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q37">
-        <v>2.067259153046111</v>
+        <v>0.9570434248629998</v>
       </c>
       <c r="R37">
-        <v>18.605332377415</v>
+        <v>8.613390823766998</v>
       </c>
       <c r="S37">
-        <v>0.001005705619391773</v>
+        <v>0.000822589904799749</v>
       </c>
       <c r="T37">
-        <v>0.001005705619391772</v>
+        <v>0.0008225899047997493</v>
       </c>
     </row>
   </sheetData>
